--- a/MovieDiary.xlsx
+++ b/MovieDiary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/korha/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB83CE8-B748-E44D-893C-114508BCFDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4D1E5C-F341-BE43-8AD5-A2C1C3BF563B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="147">
   <si>
     <t>Filmas nosaukums</t>
   </si>
@@ -31,37 +31,22 @@
     <t>Gads</t>
   </si>
   <si>
-    <t>Statistika</t>
-  </si>
-  <si>
-    <t>Vērtības</t>
-  </si>
-  <si>
     <t>Anyone But You</t>
   </si>
   <si>
     <t>Romantiskā komēdija</t>
   </si>
   <si>
-    <t>Skatītās filmas:</t>
-  </si>
-  <si>
     <t>Moulin Rouge!</t>
   </si>
   <si>
     <t>Mūzikls/Drāma</t>
   </si>
   <si>
-    <t>Vidējais vērtējums:</t>
-  </si>
-  <si>
     <t>Wonka</t>
   </si>
   <si>
     <t>Fantāzija/Mūzikls</t>
-  </si>
-  <si>
-    <t>Populārākais žanrs:</t>
   </si>
   <si>
     <t>Home Alone</t>
@@ -835,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -852,7 +837,7 @@
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,24 +848,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -891,19 +870,13 @@
       <c r="E2">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2001</v>
@@ -914,19 +887,13 @@
       <c r="E3">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -937,16 +904,13 @@
       <c r="E4">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1990</v>
@@ -958,12 +922,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>2014</v>
@@ -975,12 +939,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>2002</v>
@@ -992,12 +956,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>2006</v>
@@ -1009,12 +973,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>2005</v>
@@ -1026,12 +990,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>1962</v>
@@ -1043,12 +1007,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -1060,12 +1024,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>2021</v>
@@ -1077,12 +1041,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>2011</v>
@@ -1094,12 +1058,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -1111,12 +1075,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>2024</v>
@@ -1128,12 +1092,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -1147,10 +1111,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -1164,10 +1128,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>2010</v>
@@ -1181,10 +1145,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>2017</v>
@@ -1198,10 +1162,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -1215,10 +1179,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -1232,10 +1196,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>2024</v>
@@ -1249,10 +1213,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -1266,10 +1230,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>2010</v>
@@ -1283,10 +1247,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>2010</v>
@@ -1300,10 +1264,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>2021</v>
@@ -1317,10 +1281,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>2017</v>
@@ -1334,10 +1298,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>2013</v>
@@ -1351,10 +1315,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>2015</v>
@@ -1368,10 +1332,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30">
         <v>2012</v>
@@ -1385,10 +1349,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -1402,10 +1366,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>2018</v>
@@ -1419,10 +1383,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>2024</v>
@@ -1436,10 +1400,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>2024</v>
@@ -1453,10 +1417,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <v>2016</v>
@@ -1470,10 +1434,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>2003</v>
@@ -1487,10 +1451,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C37">
         <v>2005</v>
@@ -1504,10 +1468,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C38">
         <v>2023</v>
@@ -1521,10 +1485,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>2015</v>
@@ -1538,10 +1502,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C40">
         <v>2024</v>
@@ -1555,10 +1519,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C41">
         <v>2023</v>
@@ -1572,10 +1536,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C42">
         <v>2022</v>
@@ -1589,10 +1553,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C43">
         <v>2023</v>
@@ -1606,10 +1570,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C44">
         <v>2023</v>
@@ -1623,10 +1587,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C45">
         <v>2011</v>
@@ -1640,10 +1604,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C46">
         <v>2024</v>
@@ -1657,10 +1621,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C47">
         <v>2024</v>
@@ -1674,10 +1638,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>2024</v>
@@ -1691,10 +1655,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C49">
         <v>2006</v>
@@ -1708,10 +1672,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C50">
         <v>2023</v>
@@ -1725,10 +1689,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C51">
         <v>2024</v>
@@ -1742,10 +1706,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C52">
         <v>2004</v>
@@ -1759,10 +1723,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C53">
         <v>2024</v>
@@ -1776,10 +1740,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C54">
         <v>2024</v>
@@ -1793,10 +1757,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C55">
         <v>1969</v>
@@ -1810,10 +1774,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C56">
         <v>2006</v>
@@ -1827,10 +1791,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C57">
         <v>2012</v>
@@ -1844,10 +1808,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C58">
         <v>2024</v>
@@ -1861,10 +1825,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C59">
         <v>2024</v>
@@ -1878,10 +1842,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C60">
         <v>2009</v>
@@ -1895,10 +1859,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C61">
         <v>2017</v>
@@ -1912,10 +1876,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C62">
         <v>1995</v>
@@ -1929,10 +1893,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C63">
         <v>2019</v>
@@ -1946,10 +1910,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C64">
         <v>1994</v>
@@ -1963,10 +1927,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C65">
         <v>1986</v>
@@ -1980,10 +1944,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C66">
         <v>2017</v>
@@ -1997,10 +1961,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C67">
         <v>2021</v>
@@ -2014,10 +1978,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B68" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C68">
         <v>2024</v>
@@ -2031,10 +1995,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C69">
         <v>2024</v>
@@ -2048,10 +2012,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C70">
         <v>2021</v>
@@ -2065,10 +2029,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C71">
         <v>2024</v>
@@ -2082,10 +2046,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C72">
         <v>2024</v>
@@ -2099,10 +2063,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C73">
         <v>2000</v>
@@ -2116,10 +2080,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C74">
         <v>2024</v>
@@ -2133,10 +2097,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B75" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C75">
         <v>2024</v>
@@ -2150,10 +2114,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C76">
         <v>1997</v>
@@ -2167,10 +2131,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C77">
         <v>2024</v>
@@ -2184,10 +2148,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B78" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C78">
         <v>2003</v>
@@ -2201,10 +2165,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C79">
         <v>2024</v>
@@ -2218,10 +2182,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C80">
         <v>2024</v>
@@ -2235,10 +2199,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C81">
         <v>1993</v>
@@ -2252,10 +2216,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C82">
         <v>2017</v>
@@ -2269,10 +2233,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B83" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C83">
         <v>2024</v>
@@ -2286,10 +2250,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B84" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C84">
         <v>1998</v>
@@ -2303,10 +2267,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B85" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C85">
         <v>2024</v>
@@ -2320,10 +2284,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C86">
         <v>2023</v>
@@ -2337,10 +2301,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C87">
         <v>1994</v>
@@ -2354,10 +2318,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C88">
         <v>1967</v>
@@ -2371,10 +2335,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C89">
         <v>2024</v>
@@ -2388,10 +2352,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C90">
         <v>2024</v>
@@ -2405,10 +2369,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C91">
         <v>2024</v>
@@ -2422,10 +2386,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B92" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C92">
         <v>2024</v>
@@ -2439,10 +2403,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B93" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C93">
         <v>2014</v>
@@ -2456,10 +2420,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B94" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C94">
         <v>2017</v>
@@ -2473,10 +2437,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C95">
         <v>1994</v>
@@ -2490,10 +2454,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B96" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C96">
         <v>2024</v>
@@ -2507,10 +2471,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B97" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C97">
         <v>2024</v>
@@ -2524,10 +2488,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B98" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C98">
         <v>2020</v>
@@ -2541,10 +2505,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C99">
         <v>2024</v>
@@ -2558,10 +2522,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B100" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C100">
         <v>2024</v>
@@ -2575,10 +2539,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C101">
         <v>1978</v>
@@ -2592,10 +2556,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B102" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C102">
         <v>2024</v>
@@ -2609,10 +2573,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C103">
         <v>2002</v>
@@ -2626,10 +2590,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C104">
         <v>2007</v>
@@ -2643,10 +2607,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B105" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C105">
         <v>1951</v>
@@ -2660,10 +2624,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B106" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C106">
         <v>1958</v>
@@ -2677,10 +2641,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C107">
         <v>2025</v>
@@ -2694,10 +2658,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C108">
         <v>2013</v>
@@ -2711,10 +2675,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B109" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C109">
         <v>2025</v>
@@ -2728,10 +2692,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C110">
         <v>2013</v>
@@ -2745,10 +2709,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B111" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C111">
         <v>2003</v>
